--- a/exercisesLifeContingencies/lifeInsurance/IAx_lifeTables3.xlsx
+++ b/exercisesLifeContingencies/lifeInsurance/IAx_lifeTables3.xlsx
@@ -489,7 +489,7 @@
         <v>17.75730670488243</v>
       </c>
       <c r="E2" t="n">
-        <v>17757.30670488243</v>
+        <v>2906.415819431462</v>
       </c>
       <c r="F2" t="n">
         <v>17757.30670488243</v>
@@ -514,7 +514,7 @@
         <v>17.85303236555318</v>
       </c>
       <c r="E3" t="n">
-        <v>17853.03236555318</v>
+        <v>3503.120089918613</v>
       </c>
       <c r="F3" t="n">
         <v>17853.03236555318</v>
@@ -539,7 +539,7 @@
         <v>17.24422295904563</v>
       </c>
       <c r="E4" t="n">
-        <v>17244.22295904563</v>
+        <v>4212.486766063165</v>
       </c>
       <c r="F4" t="n">
         <v>17244.22295904563</v>
@@ -564,7 +564,7 @@
         <v>15.80743156200336</v>
       </c>
       <c r="E5" t="n">
-        <v>15807.43156200336</v>
+        <v>5019.805981111715</v>
       </c>
       <c r="F5" t="n">
         <v>15807.43156200336</v>
@@ -589,7 +589,7 @@
         <v>13.41054662005103</v>
       </c>
       <c r="E6" t="n">
-        <v>13410.54662005103</v>
+        <v>5917.479452045765</v>
       </c>
       <c r="F6" t="n">
         <v>13410.54662005103</v>
@@ -614,7 +614,7 @@
         <v>10.0038426878967</v>
       </c>
       <c r="E7" t="n">
-        <v>10003.8426878967</v>
+        <v>6881.165390848602</v>
       </c>
       <c r="F7" t="n">
         <v>10003.8426878967</v>
@@ -639,7 +639,7 @@
         <v>6.349693883909262</v>
       </c>
       <c r="E8" t="n">
-        <v>6349.693883909263</v>
+        <v>7741.474704106309</v>
       </c>
       <c r="F8" t="n">
         <v>6349.693883909263</v>
@@ -664,7 +664,7 @@
         <v>16.98193743353636</v>
       </c>
       <c r="E9" t="n">
-        <v>16981.93743353636</v>
+        <v>2369.727268068475</v>
       </c>
       <c r="F9" t="n">
         <v>16981.93743353636</v>
@@ -689,7 +689,7 @@
         <v>17.5888826256501</v>
       </c>
       <c r="E10" t="n">
-        <v>17588.8826256501</v>
+        <v>2858.180025836033</v>
       </c>
       <c r="F10" t="n">
         <v>17588.8826256501</v>
@@ -714,7 +714,7 @@
         <v>17.74837748130697</v>
       </c>
       <c r="E11" t="n">
-        <v>17748.37748130697</v>
+        <v>3433.328240030961</v>
       </c>
       <c r="F11" t="n">
         <v>17748.37748130697</v>
@@ -739,7 +739,7 @@
         <v>17.27748516108446</v>
       </c>
       <c r="E12" t="n">
-        <v>17277.48516108446</v>
+        <v>4109.572641552428</v>
       </c>
       <c r="F12" t="n">
         <v>17277.48516108446</v>
@@ -764,7 +764,7 @@
         <v>15.96664512310385</v>
       </c>
       <c r="E13" t="n">
-        <v>15966.64512310385</v>
+        <v>4897.597309379925</v>
       </c>
       <c r="F13" t="n">
         <v>15966.64512310385</v>
@@ -789,7 +789,7 @@
         <v>13.71151524467597</v>
       </c>
       <c r="E14" t="n">
-        <v>13711.51524467597</v>
+        <v>5776.868550542882</v>
       </c>
       <c r="F14" t="n">
         <v>13711.51524467597</v>
@@ -814,7 +814,7 @@
         <v>10.70491429678136</v>
       </c>
       <c r="E15" t="n">
-        <v>10704.91429678136</v>
+        <v>6673.746067758563</v>
       </c>
       <c r="F15" t="n">
         <v>10704.91429678136</v>
@@ -839,7 +839,7 @@
         <v>17.37641096669558</v>
       </c>
       <c r="E16" t="n">
-        <v>17376.41096669558</v>
+        <v>2870.401035842662</v>
       </c>
       <c r="F16" t="n">
         <v>17376.41096669558</v>
@@ -864,7 +864,7 @@
         <v>17.58701423651813</v>
       </c>
       <c r="E17" t="n">
-        <v>17587.01423651813</v>
+        <v>3415.861063987529</v>
       </c>
       <c r="F17" t="n">
         <v>17587.01423651813</v>
@@ -889,7 +889,7 @@
         <v>17.13056235352797</v>
       </c>
       <c r="E18" t="n">
-        <v>17130.56235352797</v>
+        <v>4080.743127840228</v>
       </c>
       <c r="F18" t="n">
         <v>17130.56235352797</v>
@@ -914,7 +914,7 @@
         <v>15.89521140828897</v>
       </c>
       <c r="E19" t="n">
-        <v>15895.21140828897</v>
+        <v>4843.955067316742</v>
       </c>
       <c r="F19" t="n">
         <v>15895.21140828897</v>
@@ -939,7 +939,7 @@
         <v>13.91823987820568</v>
       </c>
       <c r="E20" t="n">
-        <v>13918.23987820568</v>
+        <v>5659.079067217303</v>
       </c>
       <c r="F20" t="n">
         <v>13918.23987820568</v>
@@ -964,7 +964,7 @@
         <v>11.30890600375432</v>
       </c>
       <c r="E21" t="n">
-        <v>11308.90600375432</v>
+        <v>6482.947163918746</v>
       </c>
       <c r="F21" t="n">
         <v>11308.90600375432</v>
@@ -989,7 +989,7 @@
         <v>8.547291667163043</v>
       </c>
       <c r="E22" t="n">
-        <v>8547.291667163043</v>
+        <v>7212.195501635304</v>
       </c>
       <c r="F22" t="n">
         <v>8547.291667163043</v>
